--- a/Assets/Documentation/Schedule/1주차 작업 분배 리스트.xlsx
+++ b/Assets/Documentation/Schedule/1주차 작업 분배 리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\230215 TeamProject Metacraft\플밍팀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\230215 TeamProject Metacraft\Metacraft\Assets\Documentation\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0467ACB-BA1B-464E-8E45-2ACD96AE17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78565E32-4750-4405-B464-2127CAC15F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19C2C494-2E69-4CD5-B732-182036C3E001}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19C2C494-2E69-4CD5-B732-182036C3E001}"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>이정연</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,15 +123,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중간점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 변경 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 저장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도의 따른 크기 조절 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 CSV파일 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 작업 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,16 +219,48 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -185,14 +269,61 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -201,10 +332,64 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -216,212 +401,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -431,23 +411,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -458,11 +425,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -471,36 +558,40 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,93 +601,180 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,249 +1090,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703D5A79-9406-4BBB-B5DA-7478B4074C6B}">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="38.3984375" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="9" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="10" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="10">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21">
         <v>44972</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F4" s="21">
         <v>44973</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G4" s="21">
         <v>44974</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H4" s="21">
         <v>44975</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I4" s="21">
         <v>44976</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J4" s="22">
         <v>44977</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="12"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="11"/>
+      <c r="C18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="2:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="11"/>
+      <c r="C24" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="11"/>
+      <c r="C26" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="11"/>
+      <c r="C27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="12"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="4" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="11"/>
+      <c r="C32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="11"/>
+      <c r="C33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="11"/>
+      <c r="C34" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="12"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="F4:F13"/>
+  <mergeCells count="15">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
